--- a/outputs/room_timetables/C102.xlsx
+++ b/outputs/room_timetables/C102.xlsx
@@ -754,12 +754,11 @@
       </c>
       <c r="AD3" t="inlineStr"/>
       <c r="AE3" t="inlineStr"/>
-      <c r="AF3" t="inlineStr"/>
-      <c r="AG3" t="inlineStr"/>
-      <c r="AH3" t="inlineStr"/>
-      <c r="AI3" t="inlineStr"/>
-      <c r="AJ3" t="inlineStr"/>
-      <c r="AK3" t="inlineStr"/>
+      <c r="AF3" s="2" t="inlineStr">
+        <is>
+          <t>CS161 | Problem Solving through Programming | Dr. Animesh Roy | C102</t>
+        </is>
+      </c>
       <c r="AL3" t="inlineStr"/>
       <c r="AM3" t="inlineStr"/>
     </row>
@@ -917,7 +916,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="26">
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="Y5:AD5"/>
     <mergeCell ref="X3:AC3"/>
@@ -934,6 +933,7 @@
     <mergeCell ref="S3:V3"/>
     <mergeCell ref="B5:G5"/>
     <mergeCell ref="AE2:AH2"/>
+    <mergeCell ref="AF3:AK3"/>
     <mergeCell ref="I6:N6"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="N5:Q5"/>
